--- a/New Microsoft Excel Worksheet_de.xlsx
+++ b/New Microsoft Excel Worksheet_de.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>mãåx</t>
+      <t>mâåx</t>
     </r>
   </si>
   <si>
@@ -40,7 +40,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>dôócs</t>
+      <t>dòócs</t>
     </r>
   </si>
 </sst>

--- a/New Microsoft Excel Worksheet_de.xlsx
+++ b/New Microsoft Excel Worksheet_de.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>mâåx</t>
+      <t>måáx</t>
     </r>
   </si>
   <si>

--- a/New Microsoft Excel Worksheet_de.xlsx
+++ b/New Microsoft Excel Worksheet_de.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>måáx</t>
+      <t>màãx</t>
     </r>
   </si>
   <si>
@@ -40,7 +40,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>dòócs</t>
+      <t>dôócs</t>
     </r>
   </si>
 </sst>

--- a/New Microsoft Excel Worksheet_de.xlsx
+++ b/New Microsoft Excel Worksheet_de.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>æâdd töô tèêstqæâ</t>
+      <t>åâdd tóó tèëstqåâ</t>
     </r>
   </si>
   <si>

--- a/New Microsoft Excel Worksheet_de.xlsx
+++ b/New Microsoft Excel Worksheet_de.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>åâdd tóó tèëstqåâ</t>
+      <t>æádd tõô tëéstqæá</t>
     </r>
   </si>
   <si>
